--- a/SP_Sklad/Rep/ReturnSupplier.xlsx
+++ b/SP_Sklad/Rep/ReturnSupplier.xlsx
@@ -23,7 +23,7 @@
     <t xml:space="preserve">ПОВЕРНЕННЯ ПОСТАЧАЛЬНИКУ № </t>
   </si>
   <si>
-    <t>578</t>
+    <t>57</t>
   </si>
   <si>
     <t xml:space="preserve">від </t>
